--- a/Waste/A1_Outputs/A-O_Demand.xlsx
+++ b/Waste/A1_Outputs/A-O_Demand.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\Waste3\A1_Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\Waste_2025_01_13\A1_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF5DC74-501E-4A5B-B6E7-3A64E37CAD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1030BC0B-C54E-4D64-8E36-4EA24688DDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,7 +268,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -282,7 +282,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -605,7 +604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3:AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,82 +749,82 @@
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="15">
         <v>4.0671999999999997</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="15">
         <v>4.2161999999999997</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="15">
         <v>4.3481999999999994</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="15">
         <v>4.9634</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="15">
         <v>5.6248000000000005</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="15">
         <v>5.2972000000000001</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="15">
         <v>5.0568999999999997</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="15">
         <v>5.0416000000000007</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="15">
         <v>5.0421000000000005</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="15">
         <v>5.0625000000000009</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="15">
         <v>5.0826000000000002</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="15">
         <v>5.2141000000000002</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="15">
         <v>5.4172000000000002</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="15">
         <v>5.7304000000000004</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="15">
         <v>6.0494999999999992</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="15">
         <v>6.3740000000000006</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="15">
         <v>6.7038000000000002</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="Z2" s="15">
         <v>7.0385999999999997</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AA2" s="15">
         <v>7.3785000000000007</v>
       </c>
-      <c r="AB2" s="11">
+      <c r="AB2" s="15">
         <v>7.7234999999999996</v>
       </c>
-      <c r="AC2" s="11">
+      <c r="AC2" s="15">
         <v>8.0730000000000004</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AD2" s="15">
         <v>8.230599999999999</v>
       </c>
-      <c r="AE2" s="11">
+      <c r="AE2" s="15">
         <v>8.3885000000000005</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AF2" s="15">
         <v>8.5462999999999987</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="15">
         <v>8.7041000000000004</v>
       </c>
-      <c r="AH2" s="17">
+      <c r="AH2" s="16">
         <v>8.8618000000000006</v>
       </c>
     </row>
@@ -854,83 +853,83 @@
       <c r="H3" s="9">
         <v>0</v>
       </c>
-      <c r="I3" s="21">
-        <v>0</v>
-      </c>
-      <c r="J3" s="21">
-        <v>0</v>
-      </c>
-      <c r="K3" s="21">
-        <v>0</v>
-      </c>
-      <c r="L3" s="21">
-        <v>0</v>
-      </c>
-      <c r="M3" s="21">
-        <v>0</v>
-      </c>
-      <c r="N3" s="21">
-        <v>0</v>
-      </c>
-      <c r="O3" s="21">
-        <v>0</v>
-      </c>
-      <c r="P3" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>0</v>
-      </c>
-      <c r="R3" s="21">
-        <v>0</v>
-      </c>
-      <c r="S3" s="21">
-        <v>0</v>
-      </c>
-      <c r="T3" s="21">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="U3" s="21">
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20">
+        <v>0</v>
+      </c>
+      <c r="M3" s="20">
+        <v>0</v>
+      </c>
+      <c r="N3" s="20">
+        <v>0</v>
+      </c>
+      <c r="O3" s="20">
+        <v>0</v>
+      </c>
+      <c r="P3" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>0</v>
+      </c>
+      <c r="R3" s="20">
+        <v>0</v>
+      </c>
+      <c r="S3" s="20">
+        <v>0</v>
+      </c>
+      <c r="T3" s="20">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="V3" s="21">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="W3" s="21">
+      <c r="U3" s="20">
         <v>1.2E-2</v>
       </c>
-      <c r="X3" s="21">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y3" s="21">
+      <c r="V3" s="20">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="Z3" s="21">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="AA3" s="21">
+      <c r="W3" s="20">
         <v>2.4E-2</v>
       </c>
-      <c r="AB3" s="21">
-        <v>2.7E-2</v>
-      </c>
-      <c r="AC3" s="21">
+      <c r="X3" s="20">
         <v>0.03</v>
       </c>
-      <c r="AD3" s="21">
-        <v>0.03</v>
-      </c>
-      <c r="AE3" s="21">
-        <v>0.03</v>
-      </c>
-      <c r="AF3" s="21">
-        <v>0.03</v>
-      </c>
-      <c r="AG3" s="21">
-        <v>0.03</v>
-      </c>
-      <c r="AH3" s="22">
-        <v>0.03</v>
+      <c r="Y3" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
@@ -997,147 +996,147 @@
       <c r="U4" s="10">
         <v>0.38740000000000002</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="15">
         <v>0.4178</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="15">
         <v>0.4491</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="15">
         <v>0.44729999999999998</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="15">
         <v>0.4647</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="15">
         <v>0.54549999999999998</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="15">
         <v>0.57940000000000003</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="15">
         <v>0.61319999999999997</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="15">
         <v>0.64710000000000001</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="15">
         <v>0.68189999999999995</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="15">
         <v>0.71750000000000003</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="15">
         <v>0.75309999999999999</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="15">
         <v>0.78959999999999997</v>
       </c>
-      <c r="AH4" s="17">
+      <c r="AH4" s="16">
         <v>0.82599999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="13">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="13">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="13">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="13">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="13">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="13">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="13">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="17">
         <v>9.98E-2</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="17">
         <v>0.1072</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="17">
         <v>0.10680000000000001</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Y5" s="17">
         <v>0.111</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="Z5" s="17">
         <v>0.13020000000000001</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AA5" s="17">
         <v>0.13830000000000001</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AB5" s="17">
         <v>0.1464</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AC5" s="17">
         <v>0.1545</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="17">
         <v>0.1628</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AE5" s="17">
         <v>0.17130000000000001</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AF5" s="17">
         <v>0.17979999999999999</v>
       </c>
-      <c r="AG5" s="18">
+      <c r="AG5" s="17">
         <v>0.1885</v>
       </c>
-      <c r="AH5" s="19">
+      <c r="AH5" s="18">
         <v>0.19719999999999999</v>
       </c>
     </row>
@@ -1205,43 +1204,43 @@
       <c r="U6" s="5">
         <v>0.85040000000000004</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="11">
         <v>0.91710000000000003</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="11">
         <v>0.98580000000000001</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="11">
         <v>0.98199999999999998</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="11">
         <v>1.0201</v>
       </c>
-      <c r="Z6" s="12">
+      <c r="Z6" s="11">
         <v>1.1974</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA6" s="11">
         <v>1.2718</v>
       </c>
-      <c r="AB6" s="12">
+      <c r="AB6" s="11">
         <v>1.3461000000000001</v>
       </c>
-      <c r="AC6" s="12">
+      <c r="AC6" s="11">
         <v>1.4205000000000001</v>
       </c>
-      <c r="AD6" s="12">
+      <c r="AD6" s="11">
         <v>1.4967999999999999</v>
       </c>
-      <c r="AE6" s="12">
+      <c r="AE6" s="11">
         <v>1.575</v>
       </c>
-      <c r="AF6" s="12">
+      <c r="AF6" s="11">
         <v>1.6531</v>
       </c>
-      <c r="AG6" s="12">
+      <c r="AG6" s="11">
         <v>1.7332000000000001</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AH6" s="19">
         <v>1.8132999999999999</v>
       </c>
     </row>
@@ -1252,6 +1251,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8F814574E960A4499025803604D4DF4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="314e7041d7d1561dbe33e80becf1c782">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b2ff61d-e0c4-454b-ba72-44cf85c32a41" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84c838da6aa04a0f137f8b0aba02cfe1" ns2:_="">
     <xsd:import namespace="4b2ff61d-e0c4-454b-ba72-44cf85c32a41"/>
@@ -1421,29 +1435,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A053CC6-A581-4E07-BE9D-D4DE3A96CE50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A676E9-958E-4BE5-9166-15702E6DF533}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A676E9-958E-4BE5-9166-15702E6DF533}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D210728A-37CB-4D49-B541-778E0C81064E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D210728A-37CB-4D49-B541-778E0C81064E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A053CC6-A581-4E07-BE9D-D4DE3A96CE50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b2ff61d-e0c4-454b-ba72-44cf85c32a41"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>